--- a/biology/Médecine/Gilbert_Tordjman/Gilbert_Tordjman.xlsx
+++ b/biology/Médecine/Gilbert_Tordjman/Gilbert_Tordjman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilbert Tordjman, né le 19 juillet 1927 à Oran et mort le 3 mars 2009 à Paris 16e[1], est un médecin gynécologue et pédiatre français, praticien et adepte d'une sexologie médicale non conventionnelle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilbert Tordjman, né le 19 juillet 1927 à Oran et mort le 3 mars 2009 à Paris 16e, est un médecin gynécologue et pédiatre français, praticien et adepte d'une sexologie médicale non conventionnelle.
 Gilbert Elie Tordjemann est à l'origine en 1974 de la fondation de la Société française de sexologie clinique et, en 1978, de la World Association of Sexology qu'il préside de 1981 à 1985. 
 Il publie principalement des livres destinés au grand public ainsi que des ouvrages spécialisés. Il apparaît fréquemment dans les médias au cours des années 1970 où il se présente comme promoteur de l'éducation sexuelle pour les adolescents. 
 Il applique l'hypnose au traitement des troubles sexuels.
-En 2002, il est accusé d'abus sexuels sur une quinzaine de ses patientes et mis en examen pour viol[2]. En 2003 il est incarcéré à la maison d'arrêt de Fresnes pour ne pas avoir respecté l'interdiction d'exercer la médecine qui pesait sur lui. Il devait être jugé aux assises le 28 avril 2009 mais il décède d'un cancer début mars 2009[3].
+En 2002, il est accusé d'abus sexuels sur une quinzaine de ses patientes et mis en examen pour viol. En 2003 il est incarcéré à la maison d'arrêt de Fresnes pour ne pas avoir respecté l'interdiction d'exercer la médecine qui pesait sur lui. Il devait être jugé aux assises le 28 avril 2009 mais il décède d'un cancer début mars 2009.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De l'enfance à l'âge adulte, Paris, Hachette, 1975
 Les Racines du bonheur, Paris, Denoël, 1976
